--- a/Management Programming/PersonalProject/Document/Prototype.xlsx
+++ b/Management Programming/PersonalProject/Document/Prototype.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Chức Năng" sheetId="8" r:id="rId1"/>
@@ -666,7 +666,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -1233,16 +1233,16 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="A1:XFD1048576"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="75.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="75.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1361,17 +1361,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="92" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="75.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="75.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1569,31 +1569,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="56.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="56.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="56.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -1986,7 +1986,7 @@
       <c r="H30" s="5"/>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="1:13" ht="13.95" customHeight="1">
+    <row r="31" spans="1:13" ht="13.9" customHeight="1">
       <c r="A31">
         <v>6</v>
       </c>
@@ -2091,11 +2091,11 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2172,11 +2172,11 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="50" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2191,7 +2191,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.8">
+    <row r="2" spans="1:5" ht="16.5">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.8">
+    <row r="3" spans="1:5" ht="16.5">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.8">
+    <row r="4" spans="1:5" ht="16.5">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.8">
+    <row r="5" spans="1:5" ht="16.5">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.8">
+    <row r="6" spans="1:5" ht="16.5">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.8">
+    <row r="7" spans="1:5" ht="16.5">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.8">
+    <row r="8" spans="1:5" ht="16.5">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.8">
+    <row r="9" spans="1:5" ht="16.5">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.8">
+    <row r="10" spans="1:5" ht="16.5">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16.8">
+    <row r="11" spans="1:5" ht="16.5">
       <c r="E11" s="3" t="s">
         <v>34</v>
       </c>
@@ -2316,7 +2316,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2326,27 +2326,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="47.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="40.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -2428,7 +2428,7 @@
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" ht="28.5">
       <c r="A5" s="8" t="s">
         <v>40</v>
       </c>
@@ -2448,7 +2448,7 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="1:15" ht="27.6">
+    <row r="6" spans="1:15" ht="28.5">
       <c r="A6" s="8" t="s">
         <v>41</v>
       </c>
@@ -2532,7 +2532,7 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
     </row>
-    <row r="11" spans="1:15" ht="67.2">
+    <row r="11" spans="1:15" ht="66">
       <c r="A11" s="11" t="s">
         <v>46</v>
       </c>
@@ -2550,7 +2550,7 @@
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
     </row>
-    <row r="12" spans="1:15" ht="50.4">
+    <row r="12" spans="1:15" ht="49.5">
       <c r="A12" s="11" t="s">
         <v>43</v>
       </c>
@@ -2568,7 +2568,7 @@
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
     </row>
-    <row r="13" spans="1:15" ht="33.6">
+    <row r="13" spans="1:15" ht="33">
       <c r="A13" s="11" t="s">
         <v>47</v>
       </c>
@@ -2586,7 +2586,7 @@
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
     </row>
-    <row r="14" spans="1:15" ht="33.6">
+    <row r="14" spans="1:15" ht="33">
       <c r="A14" s="11" t="s">
         <v>44</v>
       </c>
@@ -2604,7 +2604,7 @@
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
     </row>
-    <row r="15" spans="1:15" ht="84">
+    <row r="15" spans="1:15" ht="82.5">
       <c r="A15" s="11" t="s">
         <v>45</v>
       </c>
@@ -2622,7 +2622,7 @@
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
     </row>
-    <row r="16" spans="1:15" ht="33.6">
+    <row r="16" spans="1:15" ht="33">
       <c r="A16" s="11" t="s">
         <v>48</v>
       </c>
@@ -2640,7 +2640,7 @@
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
     </row>
-    <row r="17" spans="1:15" ht="33.6">
+    <row r="17" spans="1:15" ht="33">
       <c r="A17" s="11" t="s">
         <v>49</v>
       </c>
@@ -2658,7 +2658,7 @@
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
     </row>
-    <row r="18" spans="1:15" ht="33.6">
+    <row r="18" spans="1:15" ht="33">
       <c r="A18" s="11" t="s">
         <v>50</v>
       </c>
@@ -2676,7 +2676,7 @@
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
     </row>
-    <row r="19" spans="1:15" ht="27.6">
+    <row r="19" spans="1:15" ht="28.5">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="9" t="s">
@@ -2692,7 +2692,7 @@
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
     </row>
-    <row r="20" spans="1:15" ht="41.4">
+    <row r="20" spans="1:15" ht="42.75">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="9" t="s">
@@ -2740,7 +2740,7 @@
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
     </row>
-    <row r="23" spans="1:15" ht="16.8">
+    <row r="23" spans="1:15" ht="16.5">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="9" t="s">
@@ -2756,7 +2756,7 @@
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
     </row>
-    <row r="24" spans="1:15" ht="16.8">
+    <row r="24" spans="1:15" ht="16.5">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="9" t="s">
@@ -2772,7 +2772,7 @@
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
     </row>
-    <row r="25" spans="1:15" ht="16.8">
+    <row r="25" spans="1:15" ht="16.5">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="9" t="s">
@@ -2804,7 +2804,7 @@
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
     </row>
-    <row r="27" spans="1:15" ht="27.6">
+    <row r="27" spans="1:15" ht="28.5">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="9" t="s">
@@ -2852,7 +2852,7 @@
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
     </row>
-    <row r="30" spans="1:15" ht="27.6">
+    <row r="30" spans="1:15" ht="28.5">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="9" t="s">
@@ -2868,7 +2868,7 @@
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
     </row>
-    <row r="31" spans="1:15" ht="27.6">
+    <row r="31" spans="1:15" ht="28.5">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="9" t="s">
@@ -2900,7 +2900,7 @@
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
     </row>
-    <row r="33" spans="1:15" ht="27.6">
+    <row r="33" spans="1:15" ht="28.5">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="9" t="s">
@@ -2964,7 +2964,7 @@
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
     </row>
-    <row r="37" spans="1:15" ht="27.6">
+    <row r="37" spans="1:15" ht="28.5">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="9" t="s">
@@ -3028,7 +3028,7 @@
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
     </row>
-    <row r="41" spans="1:15" ht="27.6">
+    <row r="41" spans="1:15" ht="28.5">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="9" t="s">
@@ -3044,7 +3044,7 @@
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
     </row>
-    <row r="42" spans="1:15" ht="27.6">
+    <row r="42" spans="1:15" ht="28.5">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="9" t="s">
@@ -3060,7 +3060,7 @@
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
     </row>
-    <row r="43" spans="1:15" ht="27.6">
+    <row r="43" spans="1:15" ht="28.5">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="9" t="s">
@@ -3076,7 +3076,7 @@
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" ht="28.5">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="9" t="s">
@@ -3092,7 +3092,7 @@
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
     </row>
-    <row r="45" spans="1:15" ht="27.6">
+    <row r="45" spans="1:15" ht="28.5">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="9" t="s">
@@ -3149,7 +3149,7 @@
       <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="4" spans="7:16">
       <c r="J4" s="22" t="s">
@@ -3377,7 +3377,7 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
